--- a/Code/Results/Cases/Case_1_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_207/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.389487172352517</v>
+        <v>1.529888943768071</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0006428402854803394</v>
+        <v>0.001752524866425631</v>
       </c>
       <c r="E2">
-        <v>1.695531316620446</v>
+        <v>0.7367889436378476</v>
       </c>
       <c r="F2">
-        <v>1.472037717117914</v>
+        <v>0.7518689970549275</v>
       </c>
       <c r="G2">
-        <v>1.538089311851422</v>
+        <v>0.6439444612340708</v>
       </c>
       <c r="H2">
-        <v>0.7539812539908155</v>
+        <v>0.6092161822974447</v>
       </c>
       <c r="I2">
-        <v>0.4665310821152744</v>
+        <v>0.7325154218006062</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.716594821947751</v>
+        <v>0.6142176853802255</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.948534829756568</v>
+        <v>1.391734653961521</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0003261209406528742</v>
+        <v>0.001956490648494569</v>
       </c>
       <c r="E3">
-        <v>1.50120198082314</v>
+        <v>0.6750170817489192</v>
       </c>
       <c r="F3">
-        <v>1.267221099978471</v>
+        <v>0.7132351469910247</v>
       </c>
       <c r="G3">
-        <v>1.315571348588179</v>
+        <v>0.6000875643137249</v>
       </c>
       <c r="H3">
-        <v>0.659234747686412</v>
+        <v>0.5962483534734986</v>
       </c>
       <c r="I3">
-        <v>0.4544737139833899</v>
+        <v>0.7397454770155463</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.488422393227182</v>
+        <v>0.5452547963602399</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.678991829696997</v>
+        <v>1.306782738698587</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0002129285654750568</v>
+        <v>0.00209386072557205</v>
       </c>
       <c r="E4">
-        <v>1.382139040607129</v>
+        <v>0.6369834076335081</v>
       </c>
       <c r="F4">
-        <v>1.146113810120468</v>
+        <v>0.6903673921852942</v>
       </c>
       <c r="G4">
-        <v>1.184056284695686</v>
+        <v>0.5739508704097034</v>
       </c>
       <c r="H4">
-        <v>0.6037620661898302</v>
+        <v>0.5889385751365808</v>
       </c>
       <c r="I4">
-        <v>0.4492765007024033</v>
+        <v>0.7450211596285357</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.349235875421869</v>
+        <v>0.5028710331772572</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.569383035135445</v>
+        <v>1.272134359397967</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.00018473115668316</v>
+        <v>0.00215283144169387</v>
       </c>
       <c r="E5">
-        <v>1.333661699493547</v>
+        <v>0.6214591680858064</v>
       </c>
       <c r="F5">
-        <v>1.097787098195141</v>
+        <v>0.6812602609967229</v>
       </c>
       <c r="G5">
-        <v>1.131584898804533</v>
+        <v>0.5634954389955453</v>
       </c>
       <c r="H5">
-        <v>0.5817590053563322</v>
+        <v>0.5861223338666264</v>
       </c>
       <c r="I5">
-        <v>0.4476760041192804</v>
+        <v>0.7473810570008723</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.292698877893571</v>
+        <v>0.4855895503614533</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.551194657455653</v>
+        <v>1.266379270367395</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001810635443018072</v>
+        <v>0.002162802405517361</v>
       </c>
       <c r="E6">
-        <v>1.325613988296084</v>
+        <v>0.6188798966917233</v>
       </c>
       <c r="F6">
-        <v>1.089820455991742</v>
+        <v>0.6797607260581913</v>
       </c>
       <c r="G6">
-        <v>1.122935338857758</v>
+        <v>0.5617710250336927</v>
       </c>
       <c r="H6">
-        <v>0.5781396857809113</v>
+        <v>0.5856644723756403</v>
       </c>
       <c r="I6">
-        <v>0.447440458237061</v>
+        <v>0.7477855919617369</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.283320697009287</v>
+        <v>0.4827193955854057</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.677512755803832</v>
+        <v>1.306315577044359</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0002124788128052835</v>
+        <v>0.002094643992916367</v>
       </c>
       <c r="E7">
-        <v>1.381485116977899</v>
+        <v>0.6367741425993643</v>
       </c>
       <c r="F7">
-        <v>1.145458087927182</v>
+        <v>0.6902437171416409</v>
       </c>
       <c r="G7">
-        <v>1.183344299166237</v>
+        <v>0.5738090780173479</v>
       </c>
       <c r="H7">
-        <v>0.603462982318689</v>
+        <v>0.5888999381834594</v>
       </c>
       <c r="I7">
-        <v>0.4492528680303991</v>
+        <v>0.7450521360899387</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.348472716923595</v>
+        <v>0.5026380080422257</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.23715250580824</v>
+        <v>1.482280083169712</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0005151711647961577</v>
+        <v>0.001820297619985478</v>
       </c>
       <c r="E8">
-        <v>1.628458851537843</v>
+        <v>0.7155126688945757</v>
       </c>
       <c r="F8">
-        <v>1.400360682625987</v>
+        <v>0.738369075601824</v>
       </c>
       <c r="G8">
-        <v>1.460200964209065</v>
+        <v>0.6286561333906491</v>
       </c>
       <c r="H8">
-        <v>0.7207032399470847</v>
+        <v>0.6046085159035215</v>
       </c>
       <c r="I8">
-        <v>0.4618924107191162</v>
+        <v>0.7348345577386581</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.637702045790803</v>
+        <v>0.5904478336959755</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.347728085645088</v>
+        <v>1.826308372257017</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001882676461811172</v>
+        <v>0.001381282631902625</v>
       </c>
       <c r="E9">
-        <v>2.116012747866421</v>
+        <v>0.8690318839206554</v>
       </c>
       <c r="F9">
-        <v>1.944409730391442</v>
+        <v>0.839655556556437</v>
       </c>
       <c r="G9">
-        <v>2.051939572156158</v>
+        <v>0.7426593001476363</v>
       </c>
       <c r="H9">
-        <v>0.9759428933324727</v>
+        <v>0.6406620857524103</v>
       </c>
       <c r="I9">
-        <v>0.5060359523219802</v>
+        <v>0.7214502745963074</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.214498074718733</v>
+        <v>0.7623165481452077</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.17730554591958</v>
+        <v>2.078396669518895</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.003568698495680422</v>
+        <v>0.001122802391431588</v>
       </c>
       <c r="E10">
-        <v>2.478206145451026</v>
+        <v>0.9812273147321378</v>
       </c>
       <c r="F10">
-        <v>2.382626967986994</v>
+        <v>0.9184870555936158</v>
       </c>
       <c r="G10">
-        <v>2.529587025133083</v>
+        <v>0.8305883093823638</v>
       </c>
       <c r="H10">
-        <v>1.185096567265276</v>
+        <v>0.6704536846989413</v>
       </c>
       <c r="I10">
-        <v>0.5531419221818297</v>
+        <v>0.7156973627234393</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.64791553186916</v>
+        <v>0.8883953150881041</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.559111927754373</v>
+        <v>2.192927737255445</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.004540934656723117</v>
+        <v>0.001019936876050842</v>
       </c>
       <c r="E11">
-        <v>2.644396821171924</v>
+        <v>1.032128261231719</v>
       </c>
       <c r="F11">
-        <v>2.593405903795698</v>
+        <v>0.955352868216778</v>
       </c>
       <c r="G11">
-        <v>2.759675867679078</v>
+        <v>0.8715476809360041</v>
       </c>
       <c r="H11">
-        <v>1.286581979419111</v>
+        <v>0.6847465092708376</v>
       </c>
       <c r="I11">
-        <v>0.5784922449038987</v>
+        <v>0.7139722454856212</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.848171447256448</v>
+        <v>0.9457123783432735</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.704466106625716</v>
+        <v>2.236275874300304</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.004944450502880393</v>
+        <v>0.0009831691215866911</v>
       </c>
       <c r="E12">
-        <v>2.707589622765894</v>
+        <v>1.05138229694029</v>
       </c>
       <c r="F12">
-        <v>2.675169188307848</v>
+        <v>0.9694609795060813</v>
       </c>
       <c r="G12">
-        <v>2.848990528349219</v>
+        <v>0.8872001123072266</v>
       </c>
       <c r="H12">
-        <v>1.32608604163272</v>
+        <v>0.6902670984166548</v>
       </c>
       <c r="I12">
-        <v>0.5887260798363627</v>
+        <v>0.7134477449650873</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.924543514245045</v>
+        <v>0.9674115178373768</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.673124781319189</v>
+        <v>2.226941090824255</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.004855869657528267</v>
+        <v>0.0009909894258952612</v>
       </c>
       <c r="E13">
-        <v>2.693967379815376</v>
+        <v>1.047236552426085</v>
       </c>
       <c r="F13">
-        <v>2.657468137972529</v>
+        <v>0.9664159175005551</v>
       </c>
       <c r="G13">
-        <v>2.829651780353998</v>
+        <v>0.883822702027544</v>
       </c>
       <c r="H13">
-        <v>1.317527524428527</v>
+        <v>0.6890733005585901</v>
       </c>
       <c r="I13">
-        <v>0.5864926179174716</v>
+        <v>0.7135549703799953</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.908069770521394</v>
+        <v>0.962738472884098</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.571053983741024</v>
+        <v>2.196494469275365</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.004573386493228249</v>
+        <v>0.001016867780838648</v>
       </c>
       <c r="E14">
-        <v>2.649590171179</v>
+        <v>1.033712731535388</v>
       </c>
       <c r="F14">
-        <v>2.600091721013655</v>
+        <v>0.9565105692293514</v>
       </c>
       <c r="G14">
-        <v>2.766977885184076</v>
+        <v>0.8728325470850677</v>
       </c>
       <c r="H14">
-        <v>1.289809463786156</v>
+        <v>0.6851985128863021</v>
       </c>
       <c r="I14">
-        <v>0.5793210434997604</v>
+        <v>0.7139265108964636</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.854443218550216</v>
+        <v>0.9474976932123411</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.508637586724944</v>
+        <v>2.177842090181684</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.004405152111367272</v>
+        <v>0.00103300564893205</v>
       </c>
       <c r="E15">
-        <v>2.622443502460996</v>
+        <v>1.025426221478966</v>
       </c>
       <c r="F15">
-        <v>2.565210187076119</v>
+        <v>0.9504626079000218</v>
       </c>
       <c r="G15">
-        <v>2.728883989282963</v>
+        <v>0.8661193712553654</v>
       </c>
       <c r="H15">
-        <v>1.272976425909803</v>
+        <v>0.6828392368067</v>
       </c>
       <c r="I15">
-        <v>0.5750130788528551</v>
+        <v>0.7141708745414448</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.821668713609881</v>
+        <v>0.9381615394746632</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.152453906443384</v>
+        <v>2.070908751260902</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.003509766702145534</v>
+        <v>0.001129826919134214</v>
       </c>
       <c r="E16">
-        <v>2.467378376961975</v>
+        <v>0.9778979431024766</v>
       </c>
       <c r="F16">
-        <v>2.369106877388262</v>
+        <v>0.9160982932412765</v>
       </c>
       <c r="G16">
-        <v>2.514836028090997</v>
+        <v>0.8279311736621651</v>
       </c>
       <c r="H16">
-        <v>1.178605126728087</v>
+        <v>0.6695346625245122</v>
       </c>
       <c r="I16">
-        <v>0.5515699431916374</v>
+        <v>0.7158280936275929</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.634898363926794</v>
+        <v>0.8846487437281496</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.935172017132459</v>
+        <v>2.00527040399453</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.003016889009938239</v>
+        <v>0.001193041973963638</v>
       </c>
       <c r="E17">
-        <v>2.372652500917667</v>
+        <v>0.9487047788308445</v>
       </c>
       <c r="F17">
-        <v>2.25193253604273</v>
+        <v>0.8952766447480798</v>
       </c>
       <c r="G17">
-        <v>2.387032498021284</v>
+        <v>0.8047526406831764</v>
       </c>
       <c r="H17">
-        <v>1.122442952759684</v>
+        <v>0.6615636144032919</v>
       </c>
       <c r="I17">
-        <v>0.538240084186981</v>
+        <v>0.717073537794306</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.521176152197967</v>
+        <v>0.8518107318939485</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.81060487770867</v>
+        <v>1.967503380357073</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.002752314831176328</v>
+        <v>0.001230782809858777</v>
       </c>
       <c r="E18">
-        <v>2.318299210236958</v>
+        <v>0.9319007940478059</v>
       </c>
       <c r="F18">
-        <v>2.18559239289678</v>
+        <v>0.8833949756088515</v>
       </c>
       <c r="G18">
-        <v>2.314705096061431</v>
+        <v>0.7915110850485121</v>
       </c>
       <c r="H18">
-        <v>1.090725699853976</v>
+        <v>0.6570484712625557</v>
       </c>
       <c r="I18">
-        <v>0.530937530396713</v>
+        <v>0.7178738033937151</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.456050781509077</v>
+        <v>0.8329197282417624</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.768494738914569</v>
+        <v>1.95471382647122</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.002665821779306299</v>
+        <v>0.001243796353956661</v>
       </c>
       <c r="E19">
-        <v>2.299917021573691</v>
+        <v>0.9262090868386395</v>
       </c>
       <c r="F19">
-        <v>2.163303566027423</v>
+        <v>0.8793881580585321</v>
       </c>
       <c r="G19">
-        <v>2.290409625400684</v>
+        <v>0.7870430806382558</v>
       </c>
       <c r="H19">
-        <v>1.080082845533013</v>
+        <v>0.6555316216726226</v>
       </c>
       <c r="I19">
-        <v>0.5285255996129976</v>
+        <v>0.7181591576455375</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.434046660427754</v>
+        <v>0.8265229763188131</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.958258925424445</v>
+        <v>2.012259134294766</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.003067359892460431</v>
+        <v>0.001186169178449159</v>
       </c>
       <c r="E20">
-        <v>2.38272235649454</v>
+        <v>0.9518137803201796</v>
       </c>
       <c r="F20">
-        <v>2.264294669206521</v>
+        <v>0.8974833516116263</v>
       </c>
       <c r="G20">
-        <v>2.400512766653634</v>
+        <v>0.8072106791025817</v>
       </c>
       <c r="H20">
-        <v>1.128359795061215</v>
+        <v>0.6624049310283908</v>
       </c>
       <c r="I20">
-        <v>0.5396208718612883</v>
+        <v>0.7169322692296234</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.533251972167932</v>
+        <v>0.8553067533769934</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.601012519920801</v>
+        <v>2.205437996092257</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.004655347504244567</v>
+        <v>0.001009206823348041</v>
       </c>
       <c r="E21">
-        <v>2.662617291022144</v>
+        <v>1.037685587038482</v>
       </c>
       <c r="F21">
-        <v>2.616889112057891</v>
+        <v>0.9594159715402668</v>
       </c>
       <c r="G21">
-        <v>2.785324417442666</v>
+        <v>0.8760567362893994</v>
       </c>
       <c r="H21">
-        <v>1.297920370662126</v>
+        <v>0.686333681403255</v>
       </c>
       <c r="I21">
-        <v>0.5814096916250335</v>
+        <v>0.7138138816564137</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.870179170747917</v>
+        <v>0.9519744335428584</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.025667388033582</v>
+        <v>2.331560993789196</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0059027532434337</v>
+        <v>0.0009063211254769499</v>
       </c>
       <c r="E22">
-        <v>2.847093245730093</v>
+        <v>1.09368450701399</v>
       </c>
       <c r="F22">
-        <v>2.858848301305301</v>
+        <v>1.000755735055037</v>
       </c>
       <c r="G22">
-        <v>3.049757857298715</v>
+        <v>0.9218811964900908</v>
       </c>
       <c r="H22">
-        <v>1.415091262559315</v>
+        <v>0.7026040282694339</v>
       </c>
       <c r="I22">
-        <v>0.612457149107783</v>
+        <v>0.7125266224499001</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.093579590106856</v>
+        <v>1.015119658535127</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.798552618376391</v>
+        <v>2.264259175755228</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.005215600453846392</v>
+        <v>0.0009600418270925282</v>
       </c>
       <c r="E23">
-        <v>2.748472488817413</v>
+        <v>1.063808532157026</v>
       </c>
       <c r="F23">
-        <v>2.728543532197676</v>
+        <v>0.9786118375208304</v>
       </c>
       <c r="G23">
-        <v>2.9073127241316</v>
+        <v>0.8973465967743834</v>
       </c>
       <c r="H23">
-        <v>1.35191315063463</v>
+        <v>0.6938618781725268</v>
       </c>
       <c r="I23">
-        <v>0.5955190565957622</v>
+        <v>0.7131447857711493</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.974018818857616</v>
+        <v>0.9814209459457288</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.947820250577593</v>
+        <v>2.009099624726502</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.003044483913384077</v>
+        <v>0.001189272020745591</v>
       </c>
       <c r="E24">
-        <v>2.378169448999955</v>
+        <v>0.9504082643316139</v>
       </c>
       <c r="F24">
-        <v>2.258702578509784</v>
+        <v>0.8964854225549601</v>
       </c>
       <c r="G24">
-        <v>2.394414784970792</v>
+        <v>0.8060991383050862</v>
       </c>
       <c r="H24">
-        <v>1.125683023619587</v>
+        <v>0.6620243616070525</v>
       </c>
       <c r="I24">
-        <v>0.5389954986454342</v>
+        <v>0.7169958743872158</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.527791706540313</v>
+        <v>0.853726239397588</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.045338907572216</v>
+        <v>1.73335470640734</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.001410149218117773</v>
+        <v>0.001489069567629731</v>
       </c>
       <c r="E25">
-        <v>1.98358062988838</v>
+        <v>0.8276015395192218</v>
       </c>
       <c r="F25">
-        <v>1.791395688605988</v>
+        <v>0.8114940263579626</v>
       </c>
       <c r="G25">
-        <v>1.885378914181416</v>
+        <v>0.7111034090098656</v>
       </c>
       <c r="H25">
-        <v>0.9035917871924255</v>
+        <v>0.6303360915817109</v>
       </c>
       <c r="I25">
-        <v>0.4917438764545281</v>
+        <v>0.7243563959884867</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.057067091613447</v>
+        <v>0.7158559362988797</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_207/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.529888943768071</v>
+        <v>3.38948717235246</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001752524866425631</v>
+        <v>0.0006428402854750104</v>
       </c>
       <c r="E2">
-        <v>0.7367889436378476</v>
+        <v>1.695531316620475</v>
       </c>
       <c r="F2">
-        <v>0.7518689970549275</v>
+        <v>1.472037717117928</v>
       </c>
       <c r="G2">
-        <v>0.6439444612340708</v>
+        <v>1.538089311851508</v>
       </c>
       <c r="H2">
-        <v>0.6092161822974447</v>
+        <v>0.7539812539908155</v>
       </c>
       <c r="I2">
-        <v>0.7325154218006062</v>
+        <v>0.4665310821152815</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6142176853802255</v>
+        <v>1.716594821947666</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.391734653961521</v>
+        <v>2.948534829756682</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001956490648494569</v>
+        <v>0.0003261209407283694</v>
       </c>
       <c r="E3">
-        <v>0.6750170817489192</v>
+        <v>1.50120198082314</v>
       </c>
       <c r="F3">
-        <v>0.7132351469910247</v>
+        <v>1.267221099978485</v>
       </c>
       <c r="G3">
-        <v>0.6000875643137249</v>
+        <v>1.315571348588122</v>
       </c>
       <c r="H3">
-        <v>0.5962483534734986</v>
+        <v>0.6592347476862983</v>
       </c>
       <c r="I3">
-        <v>0.7397454770155463</v>
+        <v>0.4544737139833828</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5452547963602399</v>
+        <v>1.488422393227239</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.306782738698587</v>
+        <v>2.678991829696599</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00209386072557205</v>
+        <v>0.0002129285654017821</v>
       </c>
       <c r="E4">
-        <v>0.6369834076335081</v>
+        <v>1.382139040607129</v>
       </c>
       <c r="F4">
-        <v>0.6903673921852942</v>
+        <v>1.146113810120454</v>
       </c>
       <c r="G4">
-        <v>0.5739508704097034</v>
+        <v>1.184056284695714</v>
       </c>
       <c r="H4">
-        <v>0.5889385751365808</v>
+        <v>0.6037620661898586</v>
       </c>
       <c r="I4">
-        <v>0.7450211596285357</v>
+        <v>0.4492765007023678</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5028710331772572</v>
+        <v>1.349235875421897</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.272134359397967</v>
+        <v>2.569383035135502</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.00215283144169387</v>
+        <v>0.0001847311567901855</v>
       </c>
       <c r="E5">
-        <v>0.6214591680858064</v>
+        <v>1.333661699493547</v>
       </c>
       <c r="F5">
-        <v>0.6812602609967229</v>
+        <v>1.097787098195155</v>
       </c>
       <c r="G5">
-        <v>0.5634954389955453</v>
+        <v>1.131584898804448</v>
       </c>
       <c r="H5">
-        <v>0.5861223338666264</v>
+        <v>0.5817590053564743</v>
       </c>
       <c r="I5">
-        <v>0.7473810570008723</v>
+        <v>0.4476760041192804</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4855895503614533</v>
+        <v>1.292698877893486</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.266379270367395</v>
+        <v>2.551194657455483</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002162802405517361</v>
+        <v>0.0001810635443715292</v>
       </c>
       <c r="E6">
-        <v>0.6188798966917233</v>
+        <v>1.325613988296055</v>
       </c>
       <c r="F6">
-        <v>0.6797607260581913</v>
+        <v>1.089820455991742</v>
       </c>
       <c r="G6">
-        <v>0.5617710250336927</v>
+        <v>1.122935338857758</v>
       </c>
       <c r="H6">
-        <v>0.5856644723756403</v>
+        <v>0.5781396857809113</v>
       </c>
       <c r="I6">
-        <v>0.7477855919617369</v>
+        <v>0.4474404582370752</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4827193955854057</v>
+        <v>1.283320697009486</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.306315577044359</v>
+        <v>2.677512755804059</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.002094643992916367</v>
+        <v>0.0002124788125832389</v>
       </c>
       <c r="E7">
-        <v>0.6367741425993643</v>
+        <v>1.381485116977913</v>
       </c>
       <c r="F7">
-        <v>0.6902437171416409</v>
+        <v>1.145458087927196</v>
       </c>
       <c r="G7">
-        <v>0.5738090780173479</v>
+        <v>1.183344299166237</v>
       </c>
       <c r="H7">
-        <v>0.5888999381834594</v>
+        <v>0.6034629823185753</v>
       </c>
       <c r="I7">
-        <v>0.7450521360899387</v>
+        <v>0.4492528680303991</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5026380080422257</v>
+        <v>1.348472716923681</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.482280083169712</v>
+        <v>3.237152505808581</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.001820297619985478</v>
+        <v>0.0005151711649569179</v>
       </c>
       <c r="E8">
-        <v>0.7155126688945757</v>
+        <v>1.6284588515379</v>
       </c>
       <c r="F8">
-        <v>0.738369075601824</v>
+        <v>1.400360682625973</v>
       </c>
       <c r="G8">
-        <v>0.6286561333906491</v>
+        <v>1.460200964209037</v>
       </c>
       <c r="H8">
-        <v>0.6046085159035215</v>
+        <v>0.7207032399469711</v>
       </c>
       <c r="I8">
-        <v>0.7348345577386581</v>
+        <v>0.4618924107191162</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5904478336959755</v>
+        <v>1.637702045790689</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.826308372257017</v>
+        <v>4.347728085645031</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001381282631902625</v>
+        <v>0.001882676462027888</v>
       </c>
       <c r="E9">
-        <v>0.8690318839206554</v>
+        <v>2.116012747866392</v>
       </c>
       <c r="F9">
-        <v>0.839655556556437</v>
+        <v>1.944409730391442</v>
       </c>
       <c r="G9">
-        <v>0.7426593001476363</v>
+        <v>2.051939572156243</v>
       </c>
       <c r="H9">
-        <v>0.6406620857524103</v>
+        <v>0.9759428933324727</v>
       </c>
       <c r="I9">
-        <v>0.7214502745963074</v>
+        <v>0.5060359523219518</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7623165481452077</v>
+        <v>2.214498074718648</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.078396669518895</v>
+        <v>5.177305545919694</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.001122802391431588</v>
+        <v>0.003568698495574729</v>
       </c>
       <c r="E10">
-        <v>0.9812273147321378</v>
+        <v>2.478206145451026</v>
       </c>
       <c r="F10">
-        <v>0.9184870555936158</v>
+        <v>2.382626967986994</v>
       </c>
       <c r="G10">
-        <v>0.8305883093823638</v>
+        <v>2.529587025133026</v>
       </c>
       <c r="H10">
-        <v>0.6704536846989413</v>
+        <v>1.185096567265276</v>
       </c>
       <c r="I10">
-        <v>0.7156973627234393</v>
+        <v>0.5531419221818084</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8883953150881041</v>
+        <v>2.647915531869302</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.192927737255445</v>
+        <v>5.559111927754543</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.001019936876050842</v>
+        <v>0.004540934656713347</v>
       </c>
       <c r="E11">
-        <v>1.032128261231719</v>
+        <v>2.64439682117191</v>
       </c>
       <c r="F11">
-        <v>0.955352868216778</v>
+        <v>2.59340590379567</v>
       </c>
       <c r="G11">
-        <v>0.8715476809360041</v>
+        <v>2.759675867679135</v>
       </c>
       <c r="H11">
-        <v>0.6847465092708376</v>
+        <v>1.286581979418997</v>
       </c>
       <c r="I11">
-        <v>0.7139722454856212</v>
+        <v>0.5784922449039129</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9457123783432735</v>
+        <v>2.848171447256476</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.236275874300304</v>
+        <v>5.704466106625887</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0009831691215866911</v>
+        <v>0.004944450502772035</v>
       </c>
       <c r="E12">
-        <v>1.05138229694029</v>
+        <v>2.707589622765852</v>
       </c>
       <c r="F12">
-        <v>0.9694609795060813</v>
+        <v>2.675169188307848</v>
       </c>
       <c r="G12">
-        <v>0.8872001123072266</v>
+        <v>2.848990528349134</v>
       </c>
       <c r="H12">
-        <v>0.6902670984166548</v>
+        <v>1.326086041632834</v>
       </c>
       <c r="I12">
-        <v>0.7134477449650873</v>
+        <v>0.5887260798363982</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9674115178373768</v>
+        <v>2.924543514245073</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.226941090824255</v>
+        <v>5.67312478131953</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0009909894258952612</v>
+        <v>0.004855869657627743</v>
       </c>
       <c r="E13">
-        <v>1.047236552426085</v>
+        <v>2.693967379815319</v>
       </c>
       <c r="F13">
-        <v>0.9664159175005551</v>
+        <v>2.657468137972543</v>
       </c>
       <c r="G13">
-        <v>0.883822702027544</v>
+        <v>2.82965178035397</v>
       </c>
       <c r="H13">
-        <v>0.6890733005585901</v>
+        <v>1.317527524428556</v>
       </c>
       <c r="I13">
-        <v>0.7135549703799953</v>
+        <v>0.5864926179174716</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.962738472884098</v>
+        <v>2.908069770521337</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.196494469275365</v>
+        <v>5.571053983741194</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.001016867780838648</v>
+        <v>0.004573386493218479</v>
       </c>
       <c r="E14">
-        <v>1.033712731535388</v>
+        <v>2.649590171179</v>
       </c>
       <c r="F14">
-        <v>0.9565105692293514</v>
+        <v>2.600091721013669</v>
       </c>
       <c r="G14">
-        <v>0.8728325470850677</v>
+        <v>2.766977885184076</v>
       </c>
       <c r="H14">
-        <v>0.6851985128863021</v>
+        <v>1.289809463786185</v>
       </c>
       <c r="I14">
-        <v>0.7139265108964636</v>
+        <v>0.579321043499732</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9474976932123411</v>
+        <v>2.85444321855033</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.177842090181684</v>
+        <v>5.508637586724831</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.00103300564893205</v>
+        <v>0.00440515211136816</v>
       </c>
       <c r="E15">
-        <v>1.025426221478966</v>
+        <v>2.622443502460996</v>
       </c>
       <c r="F15">
-        <v>0.9504626079000218</v>
+        <v>2.565210187076119</v>
       </c>
       <c r="G15">
-        <v>0.8661193712553654</v>
+        <v>2.728883989282991</v>
       </c>
       <c r="H15">
-        <v>0.6828392368067</v>
+        <v>1.27297642590969</v>
       </c>
       <c r="I15">
-        <v>0.7141708745414448</v>
+        <v>0.5750130788528836</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9381615394746632</v>
+        <v>2.821668713609938</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.070908751260902</v>
+        <v>5.152453906443384</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.001129826919134214</v>
+        <v>0.00350976670225478</v>
       </c>
       <c r="E16">
-        <v>0.9778979431024766</v>
+        <v>2.467378376961932</v>
       </c>
       <c r="F16">
-        <v>0.9160982932412765</v>
+        <v>2.369106877388276</v>
       </c>
       <c r="G16">
-        <v>0.8279311736621651</v>
+        <v>2.514836028091054</v>
       </c>
       <c r="H16">
-        <v>0.6695346625245122</v>
+        <v>1.178605126728087</v>
       </c>
       <c r="I16">
-        <v>0.7158280936275929</v>
+        <v>0.5515699431916445</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8846487437281496</v>
+        <v>2.634898363926681</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.00527040399453</v>
+        <v>4.935172017132686</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.001193041973963638</v>
+        <v>0.003016889009932022</v>
       </c>
       <c r="E17">
-        <v>0.9487047788308445</v>
+        <v>2.372652500917681</v>
       </c>
       <c r="F17">
-        <v>0.8952766447480798</v>
+        <v>2.251932536042744</v>
       </c>
       <c r="G17">
-        <v>0.8047526406831764</v>
+        <v>2.387032498021199</v>
       </c>
       <c r="H17">
-        <v>0.6615636144032919</v>
+        <v>1.12244295275957</v>
       </c>
       <c r="I17">
-        <v>0.717073537794306</v>
+        <v>0.5382400841869881</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.8518107318939485</v>
+        <v>2.521176152198166</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.967503380357073</v>
+        <v>4.810604877708954</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.001230782809858777</v>
+        <v>0.002752314831271363</v>
       </c>
       <c r="E18">
-        <v>0.9319007940478059</v>
+        <v>2.318299210236916</v>
       </c>
       <c r="F18">
-        <v>0.8833949756088515</v>
+        <v>2.18559239289678</v>
       </c>
       <c r="G18">
-        <v>0.7915110850485121</v>
+        <v>2.314705096061346</v>
       </c>
       <c r="H18">
-        <v>0.6570484712625557</v>
+        <v>1.090725699853976</v>
       </c>
       <c r="I18">
-        <v>0.7178738033937151</v>
+        <v>0.530937530396713</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8329197282417624</v>
+        <v>2.45605078150885</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.95471382647122</v>
+        <v>4.768494738914683</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.001243796353956661</v>
+        <v>0.002665821779185507</v>
       </c>
       <c r="E19">
-        <v>0.9262090868386395</v>
+        <v>2.299917021573677</v>
       </c>
       <c r="F19">
-        <v>0.8793881580585321</v>
+        <v>2.163303566027437</v>
       </c>
       <c r="G19">
-        <v>0.7870430806382558</v>
+        <v>2.290409625400713</v>
       </c>
       <c r="H19">
-        <v>0.6555316216726226</v>
+        <v>1.080082845533099</v>
       </c>
       <c r="I19">
-        <v>0.7181591576455375</v>
+        <v>0.5285255996129763</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8265229763188131</v>
+        <v>2.434046660427725</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.012259134294766</v>
+        <v>4.95825892542473</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.001186169178449159</v>
+        <v>0.003067359892449772</v>
       </c>
       <c r="E20">
-        <v>0.9518137803201796</v>
+        <v>2.38272235649454</v>
       </c>
       <c r="F20">
-        <v>0.8974833516116263</v>
+        <v>2.264294669206521</v>
       </c>
       <c r="G20">
-        <v>0.8072106791025817</v>
+        <v>2.400512766653605</v>
       </c>
       <c r="H20">
-        <v>0.6624049310283908</v>
+        <v>1.1283597950613</v>
       </c>
       <c r="I20">
-        <v>0.7169322692296234</v>
+        <v>0.5396208718612598</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8553067533769934</v>
+        <v>2.533251972167989</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.205437996092257</v>
+        <v>5.601012519921085</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.001009206823348041</v>
+        <v>0.004655347504132656</v>
       </c>
       <c r="E21">
-        <v>1.037685587038482</v>
+        <v>2.662617291022201</v>
       </c>
       <c r="F21">
-        <v>0.9594159715402668</v>
+        <v>2.616889112057876</v>
       </c>
       <c r="G21">
-        <v>0.8760567362893994</v>
+        <v>2.785324417442723</v>
       </c>
       <c r="H21">
-        <v>0.686333681403255</v>
+        <v>1.297920370662013</v>
       </c>
       <c r="I21">
-        <v>0.7138138816564137</v>
+        <v>0.5814096916250264</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9519744335428584</v>
+        <v>2.870179170747861</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.331560993789196</v>
+        <v>6.025667388033696</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0009063211254769499</v>
+        <v>0.005902753243431036</v>
       </c>
       <c r="E22">
-        <v>1.09368450701399</v>
+        <v>2.847093245730122</v>
       </c>
       <c r="F22">
-        <v>1.000755735055037</v>
+        <v>2.858848301305272</v>
       </c>
       <c r="G22">
-        <v>0.9218811964900908</v>
+        <v>3.049757857298772</v>
       </c>
       <c r="H22">
-        <v>0.7026040282694339</v>
+        <v>1.415091262559201</v>
       </c>
       <c r="I22">
-        <v>0.7125266224499001</v>
+        <v>0.6124571491077759</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.015119658535127</v>
+        <v>3.093579590106913</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.264259175755228</v>
+        <v>5.798552618376618</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0009600418270925282</v>
+        <v>0.005215600453843727</v>
       </c>
       <c r="E23">
-        <v>1.063808532157026</v>
+        <v>2.748472488817441</v>
       </c>
       <c r="F23">
-        <v>0.9786118375208304</v>
+        <v>2.728543532197705</v>
       </c>
       <c r="G23">
-        <v>0.8973465967743834</v>
+        <v>2.907312724131572</v>
       </c>
       <c r="H23">
-        <v>0.6938618781725268</v>
+        <v>1.351913150634601</v>
       </c>
       <c r="I23">
-        <v>0.7131447857711493</v>
+        <v>0.5955190565957267</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9814209459457288</v>
+        <v>2.974018818857758</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.009099624726502</v>
+        <v>4.947820250577308</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.001189272020745591</v>
+        <v>0.003044483913403617</v>
       </c>
       <c r="E24">
-        <v>0.9504082643316139</v>
+        <v>2.378169448999969</v>
       </c>
       <c r="F24">
-        <v>0.8964854225549601</v>
+        <v>2.258702578509755</v>
       </c>
       <c r="G24">
-        <v>0.8060991383050862</v>
+        <v>2.394414784970849</v>
       </c>
       <c r="H24">
-        <v>0.6620243616070525</v>
+        <v>1.1256830236197</v>
       </c>
       <c r="I24">
-        <v>0.7169958743872158</v>
+        <v>0.5389954986454768</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.853726239397588</v>
+        <v>2.52779170654037</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.73335470640734</v>
+        <v>4.045338907571704</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.001489069567629731</v>
+        <v>0.001410149218113332</v>
       </c>
       <c r="E25">
-        <v>0.8276015395192218</v>
+        <v>1.983580629888394</v>
       </c>
       <c r="F25">
-        <v>0.8114940263579626</v>
+        <v>1.791395688606002</v>
       </c>
       <c r="G25">
-        <v>0.7111034090098656</v>
+        <v>1.885378914181359</v>
       </c>
       <c r="H25">
-        <v>0.6303360915817109</v>
+        <v>0.9035917871924255</v>
       </c>
       <c r="I25">
-        <v>0.7243563959884867</v>
+        <v>0.4917438764545281</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7158559362988797</v>
+        <v>2.057067091613447</v>
       </c>
       <c r="M25">
         <v>0</v>
